--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>S.No</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>cannot resolve type springframework.orm and solution was to add spring orm dependancy</t>
+  </si>
+  <si>
+    <t>Junit testing</t>
+  </si>
+  <si>
+    <t>null pointer exception @BeforeClass annotation was not given on init method</t>
+  </si>
+  <si>
+    <t>0.5h</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error: class not found solution: add h2 dependacy </t>
   </si>
 </sst>
 </file>
@@ -393,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,6 +486,37 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>42685</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>42685</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>S.No</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t xml:space="preserve">error: class not found solution: add h2 dependacy </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>junit testing</t>
+  </si>
+  <si>
+    <t>web app</t>
+  </si>
+  <si>
+    <t>error: unable to create new row in the datebase solution: set hbm2dll.auto to update</t>
+  </si>
+  <si>
+    <t>setting property 'source' to 'org.eclipse.jst.jee.server Solution:</t>
   </si>
 </sst>
 </file>
@@ -408,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,6 +505,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="C4" s="2">
         <v>42685</v>
       </c>
@@ -504,6 +525,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="C5" s="2">
         <v>42685</v>
       </c>
@@ -513,8 +537,48 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42685</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42685</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>S.No</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>setting property 'source' to 'org.eclipse.jst.jee.server Solution:</t>
+  </si>
+  <si>
+    <t>exception:500  The server encountered an internal error that prevented it from fulfilling this request sol:added @repository at productDAOImpl</t>
+  </si>
+  <si>
+    <t>fetching product</t>
+  </si>
+  <si>
+    <t>15m</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,6 +590,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>42691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>S.No</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>15m</t>
+  </si>
+  <si>
+    <t>image upload</t>
+  </si>
+  <si>
+    <t>error:MultipartFile cannot be resolved to a type sol:</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,6 +616,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>S.No</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>error:MultipartFile cannot be resolved to a type sol:</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>exception: SQLGrammarException</t>
   </si>
 </sst>
 </file>
@@ -441,15 +447,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="6" width="35.44140625" customWidth="1"/>
@@ -633,6 +640,24 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>42707</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>S.No</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>exception: SQLGrammarException</t>
+  </si>
+  <si>
+    <t>Sequence "HIBERNATE_SEQUENCE" not found; SQL statement:</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,6 +661,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>S.No</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Sequence "HIBERNATE_SEQUENCE" not found; SQL statement:</t>
+  </si>
+  <si>
+    <t>org.springframework.dao.DataIntegrityViolationException: could not execute statement; SQL [n/a]; constraint ["FK_USERROLE_USER_ID: PUBLIC.USERROLE FOREIGN KEY(USER_ID) REFERENCES PUBLIC.USER(USER_ID) (0)"; SQL statement:</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +665,26 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
       <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
         <v>32</v>
       </c>
     </row>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>S.No</t>
   </si>
@@ -122,10 +122,22 @@
     <t>exception: SQLGrammarException</t>
   </si>
   <si>
-    <t>Sequence "HIBERNATE_SEQUENCE" not found; SQL statement:</t>
-  </si>
-  <si>
-    <t>org.springframework.dao.DataIntegrityViolationException: could not execute statement; SQL [n/a]; constraint ["FK_USERROLE_USER_ID: PUBLIC.USERROLE FOREIGN KEY(USER_ID) REFERENCES PUBLIC.USER(USER_ID) (0)"; SQL statement:</t>
+    <t>Error creating bean with name 'adminController': Unsatisfied dependency expressed through field 'categoryDAO'</t>
+  </si>
+  <si>
+    <t>Sequence "HIBERNATE_SEQUENCE" not found; SQL statement: sol:made auto generate type as identity</t>
+  </si>
+  <si>
+    <t>org.springframework.dao.DataIntegrityViolationException: could not execute statement; SQL [n/a]; constraint ["FK_USERROLE_USER_ID: PUBLIC.USERROLE FOREIGN KEY(USER_ID) REFERENCES PUBLIC.USER(USER_ID) (0)"; SQL statement: sol: check if field names are proper</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>java.io.StreamCorruptedException: invalid type code:</t>
+  </si>
+  <si>
+    <t>java.lang.ClassCastException: cannot assign instance of java.lang.StackTraceElement to field java.util.Collections$UnmodifiableList.list of type java.util.List in instance of java.util.Collections$UnmodifiableList</t>
   </si>
 </sst>
 </file>
@@ -453,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,28 +676,85 @@
         <v>31</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42711</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42711</v>
+      </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42711</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42711</v>
+      </c>
       <c r="H14" t="s">
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42711</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42711</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ErrorDocumentation.xlsx
+++ b/ErrorDocumentation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>S.No</t>
   </si>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>java.lang.ClassCastException: cannot assign instance of java.lang.StackTraceElement to field java.util.Collections$UnmodifiableList.list of type java.util.List in instance of java.util.Collections$UnmodifiableList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP Status 500 - Request processing failed; nested exception is java.lang.IllegalArgumentException: Unable to load class 'com.niit.gauresh_backEnd.model.ShippingAddress'
+</t>
   </si>
 </sst>
 </file>
@@ -181,10 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,6 +764,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="17" spans="9:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="I17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
